--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TFG\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01185C25-1F7F-4F28-BF07-102B01CCEEF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144E523-2E05-4AE9-ABB9-0A849BFB39D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Minutos</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Programar métodos para establecer datos en la pokedex.</t>
+  </si>
+  <si>
+    <t>Subir el proyecto a GitHub.</t>
+  </si>
+  <si>
+    <t>Crear base de datos SQLite en Android para la pokedex e insertar datos a partir del XML.</t>
+  </si>
+  <si>
+    <t>Crear sistema de gestos para la pokedex de Android.</t>
+  </si>
+  <si>
+    <t>Cambios menores al layout de la pokedex.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F38" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F38" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F42" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F42" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J38"/>
+  <dimension ref="D3:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,11 +774,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>1580</v>
+        <v>1690</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>26.333333333333332</v>
+        <v>28.166666666666668</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1130,6 +1142,50 @@
       </c>
       <c r="F38" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E39" s="5">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E40" s="5">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144E523-2E05-4AE9-ABB9-0A849BFB39D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F7C75-791A-4A2F-96B1-AB4CB9B0C3A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Minutos</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Cambios menores al layout de la pokedex.</t>
+  </si>
+  <si>
+    <t>Crear listView de la pokedex y actividad intermedia.</t>
+  </si>
+  <si>
+    <t>Cambiar metodos de conexión para poder unirse en mitad de la partida y abandonar.</t>
+  </si>
+  <si>
+    <t>Cambiar conexiones para poder unirse y salirse en cualquier momento y evitar fallos.</t>
   </si>
 </sst>
 </file>
@@ -448,8 +457,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F42" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F42" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F45" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F45" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -725,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J42"/>
+  <dimension ref="D3:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,11 +783,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>1690</v>
+        <v>1900</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>28.166666666666668</v>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1186,6 +1195,39 @@
       </c>
       <c r="F42" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E43" s="5">
+        <v>75</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E44" s="5">
+        <v>40</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="6">
+        <v>44276</v>
+      </c>
+      <c r="E45" s="5">
+        <v>95</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F7C75-791A-4A2F-96B1-AB4CB9B0C3A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D462B45-8382-4E6F-A207-4E176BF8687A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Minutos</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Cambiar conexiones para poder unirse y salirse en cualquier momento y evitar fallos.</t>
+  </si>
+  <si>
+    <t>Primera reunión con César para hablar sobre el proyecto.</t>
+  </si>
+  <si>
+    <t>Agregar segundo hilo servidor al android para recibir cadenas de texto de lo sucedido en el turno.</t>
   </si>
 </sst>
 </file>
@@ -457,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F45" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F45" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F47" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F47" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J45"/>
+  <dimension ref="D3:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,11 +789,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>1900</v>
+        <v>1980</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>31.666666666666668</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1228,6 +1234,28 @@
       </c>
       <c r="F45" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="6">
+        <v>44277</v>
+      </c>
+      <c r="E46" s="5">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>44277</v>
+      </c>
+      <c r="E47" s="5">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D462B45-8382-4E6F-A207-4E176BF8687A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08468ECF-FE5D-4DD3-BAD9-D3B2D9E4B3EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Minutos</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Agregar segundo hilo servidor al android para recibir cadenas de texto de lo sucedido en el turno.</t>
+  </si>
+  <si>
+    <t>Arreglar el hilo e investigar sobre el formato de texto.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F47" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F47" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F48" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F48" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -740,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J47"/>
+  <dimension ref="D3:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,11 +792,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>33</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1256,6 +1259,17 @@
       </c>
       <c r="F47" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="6">
+        <v>44278</v>
+      </c>
+      <c r="E48" s="5">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08468ECF-FE5D-4DD3-BAD9-D3B2D9E4B3EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EFAA4-76F9-4441-BFD1-297637E54C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Minutos</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Arreglar el hilo e investigar sobre el formato de texto.</t>
+  </si>
+  <si>
+    <t>Empezar con la relización de la memoria del proyecto.</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F48" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F48" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F49" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F49" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -743,9 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J48"/>
+  <dimension ref="D3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -792,11 +795,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2070</v>
+        <v>2130</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1270,6 +1273,17 @@
       </c>
       <c r="F48" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="6">
+        <v>44287</v>
+      </c>
+      <c r="E49" s="5">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EFAA4-76F9-4441-BFD1-297637E54C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8994D2B0-ACAE-48D8-B93F-6C9E3BF4BA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Minutos</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Empezar con la relización de la memoria del proyecto.</t>
+  </si>
+  <si>
+    <t>Casos de uso y redactar diseño memoria.</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F49" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F49" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F50" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J49"/>
+  <dimension ref="D3:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,11 +798,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2130</v>
+        <v>2205</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>35.5</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1284,6 +1287,17 @@
       </c>
       <c r="F49" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="6">
+        <v>44288</v>
+      </c>
+      <c r="E50" s="5">
+        <v>75</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8994D2B0-ACAE-48D8-B93F-6C9E3BF4BA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965842E1-E9FE-414B-A863-C66651CCE491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Minutos</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Casos de uso y redactar diseño memoria.</t>
+  </si>
+  <si>
+    <t>Redactar memoria base de datos en Android.</t>
+  </si>
+  <si>
+    <t>Redactar implementacion de la base de datos y actividades Pokédex.</t>
   </si>
 </sst>
 </file>
@@ -472,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F50" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F52" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F52" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J50"/>
+  <dimension ref="D3:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,11 +804,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2205</v>
+        <v>2355</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>36.75</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1298,6 +1304,28 @@
       </c>
       <c r="F50" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="6">
+        <v>44289</v>
+      </c>
+      <c r="E51" s="5">
+        <v>90</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="6">
+        <v>44290</v>
+      </c>
+      <c r="E52" s="5">
+        <v>60</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965842E1-E9FE-414B-A863-C66651CCE491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A89682-F2FD-49F2-B1C5-C329BEFDF315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Minutos</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Redactar implementacion de la base de datos y actividades Pokédex.</t>
+  </si>
+  <si>
+    <t>Redactar implementacion TCP.</t>
   </si>
 </sst>
 </file>
@@ -478,8 +481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F52" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F52" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F53" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F53" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J52"/>
+  <dimension ref="D3:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,11 +807,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2355</v>
+        <v>2445</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>39.25</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1326,6 +1329,17 @@
       </c>
       <c r="F52" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="6">
+        <v>44290</v>
+      </c>
+      <c r="E53" s="5">
+        <v>90</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A89682-F2FD-49F2-B1C5-C329BEFDF315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5E7B0-CE64-4A00-BBCA-50F0A2383AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Minutos</t>
   </si>
@@ -183,10 +183,13 @@
     <t>Redactar memoria base de datos en Android.</t>
   </si>
   <si>
-    <t>Redactar implementacion de la base de datos y actividades Pokédex.</t>
-  </si>
-  <si>
-    <t>Redactar implementacion TCP.</t>
+    <t>Redactar memoria implementación TCP y arreglar advertencias.</t>
+  </si>
+  <si>
+    <t>Redactar implementación TCP.</t>
+  </si>
+  <si>
+    <t>Redactar implementación de la base de datos y actividades Pokédex.</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F53" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F53" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F54" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F54" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -758,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J53"/>
+  <dimension ref="D3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,11 +810,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2445</v>
+        <v>2485</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>40.75</v>
+        <v>41.416666666666664</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1328,7 +1331,7 @@
         <v>60</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
@@ -1340,6 +1343,17 @@
       </c>
       <c r="F53" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="6">
+        <v>44292</v>
+      </c>
+      <c r="E54" s="5">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5E7B0-CE64-4A00-BBCA-50F0A2383AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8F9E8B-BC29-4DC8-AEA9-E9A6CDFFEBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Minutos</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Redactar implementación de la base de datos y actividades Pokédex.</t>
+  </si>
+  <si>
+    <t>Redactar objetivos.</t>
   </si>
 </sst>
 </file>
@@ -484,8 +487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F54" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F54" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F55" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F55" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -761,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J54"/>
+  <dimension ref="D3:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,11 +813,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2485</v>
+        <v>2495</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>41.416666666666664</v>
+        <v>41.583333333333336</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1354,6 +1357,17 @@
       </c>
       <c r="F54" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="6">
+        <v>44293</v>
+      </c>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8F9E8B-BC29-4DC8-AEA9-E9A6CDFFEBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E6389-5AAE-4DB0-BCEF-FD55A687F008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Minutos</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Redactar objetivos.</t>
+  </si>
+  <si>
+    <t>Redactar diagrama de clases memoria.</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F55" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F55" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F56" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F56" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
     <sortCondition ref="D4:D18"/>
   </sortState>
@@ -764,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J55"/>
+  <dimension ref="D3:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,11 +816,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2495</v>
+        <v>2615</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>41.583333333333336</v>
+        <v>43.583333333333336</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1368,6 +1371,17 @@
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="6">
+        <v>44307</v>
+      </c>
+      <c r="E56" s="5">
+        <v>120</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E6389-5AAE-4DB0-BCEF-FD55A687F008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75D13D-974D-4F3C-92D5-038F4FCBDCFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Minutos</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Redactar diagrama de clases memoria.</t>
+  </si>
+  <si>
+    <t>Redactar bibliografia, mejorar memoria.</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F56" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F56" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F18">
-    <sortCondition ref="D4:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F57" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F57" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
+    <sortCondition ref="D4:D57"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{187346F8-1DDA-4474-8E13-18CE42E7C8B4}" name="Día" dataDxfId="2"/>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J56"/>
+  <dimension ref="D3:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,11 +819,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2615</v>
+        <v>2705</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>43.583333333333336</v>
+        <v>45.083333333333336</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1375,12 +1378,23 @@
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
+        <v>44302</v>
+      </c>
+      <c r="E56" s="5">
+        <v>90</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="6">
         <v>44307</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="5">
         <v>120</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75D13D-974D-4F3C-92D5-038F4FCBDCFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899FD24-E825-4355-AE21-964EF1F29B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Minutos</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Redactar bibliografia, mejorar memoria.</t>
+  </si>
+  <si>
+    <t>Mejorar memoria redactar índice.</t>
+  </si>
+  <si>
+    <t>Implementar una forma de que el pc reciba automaticamente la IP del movil.</t>
   </si>
 </sst>
 </file>
@@ -493,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F57" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F57" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F59" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F59" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
     <sortCondition ref="D4:D57"/>
   </sortState>
@@ -770,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J57"/>
+  <dimension ref="D3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,11 +825,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2705</v>
+        <v>2845</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>45.083333333333336</v>
+        <v>47.416666666666664</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1396,6 +1402,28 @@
       </c>
       <c r="F57" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="6">
+        <v>44309</v>
+      </c>
+      <c r="E58" s="5">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="6">
+        <v>44311</v>
+      </c>
+      <c r="E59" s="5">
+        <v>110</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899FD24-E825-4355-AE21-964EF1F29B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDF572-0D6E-4E51-A59F-0E3A2F19AE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Minutos</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Implementar una forma de que el pc reciba automaticamente la IP del movil.</t>
+  </si>
+  <si>
+    <t>Realizar pruebas del proyecto y arreglo de bugs.</t>
+  </si>
+  <si>
+    <t>Redactar pruebas.</t>
   </si>
 </sst>
 </file>
@@ -499,8 +505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F59" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F59" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F61" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F61" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
     <sortCondition ref="D4:D57"/>
   </sortState>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J59"/>
+  <dimension ref="D3:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,11 +831,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2845</v>
+        <v>2985</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>47.416666666666664</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1424,6 +1430,28 @@
       </c>
       <c r="F59" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="6">
+        <v>44318</v>
+      </c>
+      <c r="E60" s="5">
+        <v>120</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="6">
+        <v>44318</v>
+      </c>
+      <c r="E61" s="5">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDF572-0D6E-4E51-A59F-0E3A2F19AE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31687910-CFEB-4D45-A7D7-D3C8592F3EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27090" yWindow="10065" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Minutos</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Redactar pruebas.</t>
+  </si>
+  <si>
+    <t>Programar método que muestra la IP del PC.</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F61" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F61" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F62" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F62" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
     <sortCondition ref="D4:D57"/>
   </sortState>
@@ -782,23 +785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J61"/>
+  <dimension ref="D3:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="100.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="4:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
@@ -818,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="6">
         <v>44256</v>
       </c>
@@ -831,14 +834,14 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2985</v>
+        <v>2995</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>49.75</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+        <v>49.916666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D6" s="6">
         <v>44256</v>
       </c>
@@ -849,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D7" s="6">
         <v>44257</v>
       </c>
@@ -860,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D8" s="6">
         <v>44258</v>
       </c>
@@ -871,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D9" s="6">
         <v>44261</v>
       </c>
@@ -882,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D10" s="6">
         <v>44261</v>
       </c>
@@ -893,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D11" s="6">
         <v>44263</v>
       </c>
@@ -904,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D12" s="6">
         <v>44265</v>
       </c>
@@ -915,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D13" s="6">
         <v>44268</v>
       </c>
@@ -926,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D14" s="6">
         <v>44269</v>
       </c>
@@ -937,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D15" s="6">
         <v>44270</v>
       </c>
@@ -948,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D16" s="6">
         <v>44271</v>
       </c>
@@ -959,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="6">
         <v>44272</v>
       </c>
@@ -970,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="6">
         <v>44272</v>
       </c>
@@ -981,7 +984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="6">
         <v>44274</v>
       </c>
@@ -992,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="6">
         <v>44274</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="6">
         <v>44274</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="6">
         <v>44274</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" s="6">
         <v>44274</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" s="6">
         <v>44274</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" s="6">
         <v>44274</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D26" s="6">
         <v>44274</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D27" s="6">
         <v>44274</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D28" s="6">
         <v>44274</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D29" s="6">
         <v>44274</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D30" s="6">
         <v>44275</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D31" s="6">
         <v>44275</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D32" s="6">
         <v>44275</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="6">
         <v>44275</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="6">
         <v>44275</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="6">
         <v>44275</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="6">
         <v>44275</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="6">
         <v>44275</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="6">
         <v>44275</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="6">
         <v>44276</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="6">
         <v>44276</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="6">
         <v>44276</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="6">
         <v>44276</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="6">
         <v>44276</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="6">
         <v>44276</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="6">
         <v>44276</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="6">
         <v>44277</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="6">
         <v>44277</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="6">
         <v>44278</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="6">
         <v>44287</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="6">
         <v>44288</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="6">
         <v>44289</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="6">
         <v>44290</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="6">
         <v>44290</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="6">
         <v>44292</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="6">
         <v>44293</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="6">
         <v>44302</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="6">
         <v>44307</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="6">
         <v>44309</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D59" s="6">
         <v>44311</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D60" s="6">
         <v>44318</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D61" s="6">
         <v>44318</v>
       </c>
@@ -1452,6 +1455,17 @@
       </c>
       <c r="F61" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D62" s="6">
+        <v>44319</v>
+      </c>
+      <c r="E62" s="5">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31687910-CFEB-4D45-A7D7-D3C8592F3EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C241189-EED6-4BEB-AEEC-163BE234D294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27090" yWindow="10065" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Minutos</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Programar método que muestra la IP del PC.</t>
+  </si>
+  <si>
+    <t>Acabar memoria.</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F62" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F62" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F63" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F63" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
     <sortCondition ref="D4:D57"/>
   </sortState>
@@ -785,23 +788,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J62"/>
+  <dimension ref="D3:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="100.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="4:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="6">
         <v>44256</v>
       </c>
@@ -834,14 +837,14 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>2995</v>
+        <v>3055</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>49.916666666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+        <v>50.916666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="6">
         <v>44256</v>
       </c>
@@ -852,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="6">
         <v>44257</v>
       </c>
@@ -863,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="6">
         <v>44258</v>
       </c>
@@ -874,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="6">
         <v>44261</v>
       </c>
@@ -885,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
         <v>44261</v>
       </c>
@@ -896,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="6">
         <v>44263</v>
       </c>
@@ -907,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D12" s="6">
         <v>44265</v>
       </c>
@@ -918,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="6">
         <v>44268</v>
       </c>
@@ -929,7 +932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="6">
         <v>44269</v>
       </c>
@@ -940,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <v>44270</v>
       </c>
@@ -951,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
         <v>44271</v>
       </c>
@@ -962,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
         <v>44272</v>
       </c>
@@ -973,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <v>44272</v>
       </c>
@@ -984,7 +987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <v>44274</v>
       </c>
@@ -995,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <v>44274</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <v>44274</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <v>44274</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <v>44274</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <v>44274</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <v>44274</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <v>44274</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <v>44274</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <v>44274</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <v>44274</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <v>44275</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <v>44275</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <v>44275</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <v>44275</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <v>44275</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <v>44275</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <v>44275</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <v>44275</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <v>44275</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <v>44276</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <v>44276</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <v>44276</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <v>44276</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <v>44276</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <v>44276</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <v>44276</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <v>44277</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <v>44277</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <v>44278</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="6">
         <v>44287</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="6">
         <v>44288</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <v>44289</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="6">
         <v>44290</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="6">
         <v>44290</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="6">
         <v>44292</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="6">
         <v>44293</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <v>44302</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <v>44307</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="6">
         <v>44309</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="6">
         <v>44311</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="6">
         <v>44318</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="6">
         <v>44318</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="6">
         <v>44319</v>
       </c>
@@ -1466,6 +1469,17 @@
       </c>
       <c r="F62" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="6">
+        <v>44321</v>
+      </c>
+      <c r="E63" s="5">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/HorasDedicadas.xlsx
+++ b/Archivos/HorasDedicadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoti\Documents\GitHub\TFG\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C241189-EED6-4BEB-AEEC-163BE234D294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC29A4-3BAF-4348-A979-865D7697868C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Minutos</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Acabar memoria.</t>
+  </si>
+  <si>
+    <t>Crear .apk de la aplicación Android.</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F63" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="D4:F63" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF896CE3-B8BD-43F6-BA2E-901BC648D50F}" name="Tabla1" displayName="Tabla1" ref="D4:F64" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="D4:F64" xr:uid="{B7C67675-289C-43E0-8C42-6E5BDE89F297}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:F57">
     <sortCondition ref="D4:D57"/>
   </sortState>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:J63"/>
+  <dimension ref="D3:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,11 +840,11 @@
       <c r="H5" s="10"/>
       <c r="I5" s="8">
         <f>SUM(Tabla1[Minutos])</f>
-        <v>3055</v>
+        <v>3070</v>
       </c>
       <c r="J5" s="7">
         <f>CONVERT(I5,"mn","hr")</f>
-        <v>50.916666666666664</v>
+        <v>51.166666666666664</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -1480,6 +1483,17 @@
       </c>
       <c r="F63" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="6">
+        <v>44321</v>
+      </c>
+      <c r="E64" s="5">
+        <v>15</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
